--- a/biology/Écologie/La_Revue_durable/La_Revue_durable.xlsx
+++ b/biology/Écologie/La_Revue_durable/La_Revue_durable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Revue durable est une revue de vulgarisation francophone sur la durabilité et la transition écologique. 
@@ -512,13 +524,85 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 2002 en Suisse[1],[2],[3], elle a publié une septantaine de dossiers sur des thématiques liées à l'environnement, l'agriculture durable, la biodiversité, les ressources et consommation énergétiques mondiales, l'écologie, etc.[2],[4]
-Artisans de la transition
-En mars 2016, une association est créée sous le nom « Artisans de la transition »[5],[6]. Cette association privilégie plusieurs centres d'intérêt[6], outre la publication de la revue : une veille sur le climat[7], l'énergie citoyenne[8], les énergies fossiles[9],[10],[11], l'économie alternative[12], ou encore l'histoire et la culture.
-Numéros et thèmes
-Les articles des dix premières années de La Revue durable sont gratuitement accessibles en ligne[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 2002 en Suisse elle a publié une septantaine de dossiers sur des thématiques liées à l'environnement, l'agriculture durable, la biodiversité, les ressources et consommation énergétiques mondiales, l'écologie, etc.,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>La_Revue_durable</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Revue_durable</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Artisans de la transition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2016, une association est créée sous le nom « Artisans de la transition »,. Cette association privilégie plusieurs centres d'intérêt, outre la publication de la revue : une veille sur le climat, l'énergie citoyenne, les énergies fossiles l'économie alternative, ou encore l'histoire et la culture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_Revue_durable</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Revue_durable</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Numéros et thèmes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les articles des dix premières années de La Revue durable sont gratuitement accessibles en ligne.
 Parutions
 Maîtriser la consommation d'électricité au Nord
 Cultiver les savoirs pour mieux cultiver les sols
